--- a/var_info/indv_panel_var_info/ENKAVI_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/ENKAVI_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2D434D-0AE9-BB48-80E6-BA429D4628B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B924CE-DCCF-B54A-95ED-6BBA51B1095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$B$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$B$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$43</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="108">
   <si>
     <t>ENKAVI</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>alc</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -834,10 +837,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1193,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1208,7 +1209,7 @@
     <col min="5" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1252,10 +1253,13 @@
         <v>56</v>
       </c>
       <c r="O1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1283,14 +1287,17 @@
       <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>5</v>
       </c>
       <c r="K2">
         <v>365</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1318,14 +1325,17 @@
       <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>5</v>
       </c>
       <c r="K3">
         <v>365</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1353,14 +1363,17 @@
       <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>5</v>
       </c>
       <c r="K4">
         <v>365</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1388,14 +1401,17 @@
       <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>5</v>
       </c>
       <c r="K5">
         <v>365</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1423,14 +1439,17 @@
       <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>5</v>
       </c>
       <c r="K6">
         <v>365</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1458,14 +1477,17 @@
       <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
         <v>365</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1493,14 +1515,17 @@
       <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
         <v>365</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1528,14 +1553,17 @@
       <c r="I9" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>5</v>
       </c>
       <c r="K9">
         <v>365</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1563,14 +1591,17 @@
       <c r="I10" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>5</v>
       </c>
       <c r="K10">
         <v>365</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1598,14 +1629,17 @@
       <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>5</v>
       </c>
       <c r="K11">
         <v>365</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1633,14 +1667,17 @@
       <c r="I12" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>7</v>
       </c>
       <c r="K12">
         <v>365</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1668,14 +1705,17 @@
       <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>7</v>
       </c>
       <c r="K13">
         <v>365</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1703,14 +1743,17 @@
       <c r="I14" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>5</v>
       </c>
       <c r="K14">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1738,14 +1781,17 @@
       <c r="I15" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>5</v>
       </c>
       <c r="K15">
         <v>180</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1819,7 @@
       <c r="I16" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>2</v>
       </c>
       <c r="K16">
@@ -1782,8 +1828,11 @@
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1860,7 @@
       <c r="I17" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>2</v>
       </c>
       <c r="K17">
@@ -1820,8 +1869,11 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1849,14 +1901,17 @@
       <c r="I18" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18">
         <v>5</v>
       </c>
       <c r="K18">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1884,14 +1939,17 @@
       <c r="I19" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>5</v>
       </c>
       <c r="K19">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1919,14 +1977,17 @@
       <c r="I20" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20">
         <v>5</v>
       </c>
       <c r="K20">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1954,14 +2015,17 @@
       <c r="I21" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21">
         <v>5</v>
       </c>
       <c r="K21">
         <v>180</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1989,14 +2053,17 @@
       <c r="I22" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22">
         <v>5</v>
       </c>
       <c r="K22">
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2024,14 +2091,17 @@
       <c r="I23" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23">
         <v>5</v>
       </c>
       <c r="K23">
         <v>180</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2059,9 +2129,11 @@
       <c r="I24" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2089,9 +2161,11 @@
       <c r="I25" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2122,11 +2196,14 @@
       <c r="L26" t="s">
         <v>62</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2157,11 +2234,14 @@
       <c r="L27" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2192,11 +2272,14 @@
       <c r="L28" t="s">
         <v>62</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2227,11 +2310,14 @@
       <c r="L29" t="s">
         <v>62</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2262,11 +2348,14 @@
       <c r="L30" t="s">
         <v>62</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2297,11 +2386,14 @@
       <c r="L31" t="s">
         <v>62</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2332,11 +2424,14 @@
       <c r="L32" t="s">
         <v>62</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2367,11 +2462,14 @@
       <c r="L33" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2402,11 +2500,14 @@
       <c r="L34" t="s">
         <v>104</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2437,11 +2538,14 @@
       <c r="L35" t="s">
         <v>104</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2469,9 +2573,11 @@
       <c r="I36" t="s">
         <v>31</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2499,9 +2605,11 @@
       <c r="I37" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2529,9 +2637,11 @@
       <c r="I38" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2559,9 +2669,11 @@
       <c r="I39" t="s">
         <v>31</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2589,14 +2701,17 @@
       <c r="I40" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40">
         <v>8</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2624,14 +2739,17 @@
       <c r="I41" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41">
         <v>8</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2659,9 +2777,11 @@
       <c r="I42" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2689,52 +2809,26 @@
       <c r="I43" t="s">
         <v>31</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="2"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
+      <c r="O43">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O43" xr:uid="{E6F83B58-80B6-9C4C-870A-E84450327065}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2778,10 +2872,13 @@
         <v>56</v>
       </c>
       <c r="O1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2797,11 +2894,11 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2817,11 +2914,11 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2837,11 +2934,11 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2857,11 +2954,11 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2877,11 +2974,11 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2897,11 +2994,11 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2917,11 +3014,11 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2937,7 +3034,7 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2948,15 +3045,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -3000,10 +3097,13 @@
         <v>56</v>
       </c>
       <c r="O1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3019,11 +3119,11 @@
       <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3039,11 +3139,11 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3059,11 +3159,11 @@
       <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +3179,7 @@
       <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3090,15 +3190,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -3142,10 +3242,13 @@
         <v>56</v>
       </c>
       <c r="O1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3161,11 +3264,11 @@
       <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3181,7 +3284,7 @@
       <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3192,15 +3295,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9869706-A55A-6049-9CAB-35547928F3CE}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -3247,6 +3350,9 @@
         <v>56</v>
       </c>
       <c r="P1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" t="s">
         <v>59</v>
       </c>
     </row>
